--- a/managementcmdfiles/dataset.xlsx
+++ b/managementcmdfiles/dataset.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gurleenkaur\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8517848-91E7-4EF2-916E-8DC3F36EC187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet 1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="225">
   <si>
     <t>Dataset ID</t>
   </si>
@@ -497,14 +503,205 @@
   </si>
   <si>
     <t>Work Orders</t>
+  </si>
+  <si>
+    <t>Manufacturingorderlines</t>
+  </si>
+  <si>
+    <t>Manufacturingorders</t>
+  </si>
+  <si>
+    <t>PurchaseOrder</t>
+  </si>
+  <si>
+    <t>PurchaseOrderLines</t>
+  </si>
+  <si>
+    <t>AddressTag</t>
+  </si>
+  <si>
+    <t>Cartlines</t>
+  </si>
+  <si>
+    <t>SalesInvoices</t>
+  </si>
+  <si>
+    <t>SalesQuotations</t>
+  </si>
+  <si>
+    <t>SalesQuotationLines</t>
+  </si>
+  <si>
+    <t>SalesReturns</t>
+  </si>
+  <si>
+    <t>SalesReturnLines</t>
+  </si>
+  <si>
+    <t>SalesCredits</t>
+  </si>
+  <si>
+    <t>SalesOrders</t>
+  </si>
+  <si>
+    <t>SalesOrderLines</t>
+  </si>
+  <si>
+    <t>VendorPrices</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>FormData</t>
+  </si>
+  <si>
+    <t>FormSection</t>
+  </si>
+  <si>
+    <t>FormPanels</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>ListFilters</t>
+  </si>
+  <si>
+    <t>ListSorts</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Tile</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>FormStage</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>EntityUser</t>
+  </si>
+  <si>
+    <t>EntityProducts</t>
+  </si>
+  <si>
+    <t>EntityTeam</t>
+  </si>
+  <si>
+    <t>EntityAccounts</t>
+  </si>
+  <si>
+    <t>EntityForms</t>
+  </si>
+  <si>
+    <t>EntityList</t>
+  </si>
+  <si>
+    <t>EntityMenuItem</t>
+  </si>
+  <si>
+    <t>Original Model</t>
+  </si>
+  <si>
+    <t>RecordIdentifiers</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>RolePermissions</t>
+  </si>
+  <si>
+    <t>RoleCategories</t>
+  </si>
+  <si>
+    <t>RoleTerritories</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>TeamUser</t>
+  </si>
+  <si>
+    <t>TeamRole</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>UserRoles</t>
+  </si>
+  <si>
+    <t>ProductLocations</t>
+  </si>
+  <si>
+    <t>ProductCounts</t>
+  </si>
+  <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Equivalents</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>JournalTemplate</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ContainerTypes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +722,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -535,11 +738,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -549,16 +752,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFffffff"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFffffff"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFffffff"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFffffff"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,67 +782,76 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFffffff"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFffffff"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFffffff"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -650,10 +862,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -691,71 +903,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,7 +995,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -806,11 +1018,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -819,13 +1031,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -835,7 +1047,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -844,7 +1056,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -853,7 +1065,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -861,10 +1073,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -929,25 +1141,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A3" ySplit="2" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="40.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,8 +1173,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="E1" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -972,8 +1188,11 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -984,8 +1203,11 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
       <c r="A4" s="3">
         <v>30</v>
       </c>
@@ -996,8 +1218,11 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
       <c r="A5" s="3">
         <v>40</v>
       </c>
@@ -1008,8 +1233,11 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
       <c r="A6" s="7">
         <v>50</v>
       </c>
@@ -1020,8 +1248,11 @@
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
       <c r="A7" s="3">
         <v>60</v>
       </c>
@@ -1031,7 +1262,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
       <c r="A8" s="3">
         <v>70</v>
       </c>
@@ -1043,7 +1274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:5" ht="17.25" customHeight="1">
       <c r="A9" s="3">
         <v>80</v>
       </c>
@@ -1054,8 +1285,11 @@
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1">
       <c r="A10" s="3">
         <v>90</v>
       </c>
@@ -1067,7 +1301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:5" ht="17.25" customHeight="1">
       <c r="A11" s="3">
         <v>100</v>
       </c>
@@ -1078,8 +1312,11 @@
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="E11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1">
       <c r="A12" s="3">
         <v>110</v>
       </c>
@@ -1090,8 +1327,11 @@
       <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1">
       <c r="A13" s="3">
         <v>120</v>
       </c>
@@ -1102,8 +1342,11 @@
       <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="E13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1">
       <c r="A14" s="3">
         <v>130</v>
       </c>
@@ -1114,8 +1357,11 @@
       <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" customHeight="1">
       <c r="A15" s="3">
         <v>140</v>
       </c>
@@ -1126,8 +1372,11 @@
       <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" customHeight="1">
       <c r="A16" s="3">
         <v>150</v>
       </c>
@@ -1137,7 +1386,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:5" ht="17.25" customHeight="1">
       <c r="A17" s="3">
         <v>160</v>
       </c>
@@ -1148,8 +1397,11 @@
       <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" customHeight="1">
       <c r="A18" s="3">
         <v>170</v>
       </c>
@@ -1161,7 +1413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:5" ht="17.25" customHeight="1">
       <c r="A19" s="3">
         <v>180</v>
       </c>
@@ -1172,8 +1424,11 @@
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="E19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
       <c r="A20" s="3">
         <v>190</v>
       </c>
@@ -1182,8 +1437,11 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" customHeight="1">
       <c r="A21" s="3">
         <v>200</v>
       </c>
@@ -1194,8 +1452,11 @@
       <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" customHeight="1">
       <c r="A22" s="3">
         <v>210</v>
       </c>
@@ -1207,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:5" ht="17.25" customHeight="1">
       <c r="A23" s="3">
         <v>220</v>
       </c>
@@ -1218,8 +1479,11 @@
       <c r="D23" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" customHeight="1">
       <c r="A24" s="3">
         <v>230</v>
       </c>
@@ -1228,8 +1492,11 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" customHeight="1">
       <c r="A25" s="3">
         <v>240</v>
       </c>
@@ -1241,7 +1508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:5" ht="17.25" customHeight="1">
       <c r="A26" s="3">
         <v>250</v>
       </c>
@@ -1251,7 +1518,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:5" ht="17.25" customHeight="1">
       <c r="A27" s="3">
         <v>260</v>
       </c>
@@ -1262,8 +1529,11 @@
       <c r="D27" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" customHeight="1">
       <c r="A28" s="3">
         <v>270</v>
       </c>
@@ -1274,8 +1544,11 @@
       <c r="D28" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" customHeight="1">
       <c r="A29" s="3">
         <v>280</v>
       </c>
@@ -1287,7 +1560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:5" ht="17.25" customHeight="1">
       <c r="A30" s="3">
         <v>290</v>
       </c>
@@ -1299,7 +1572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:5" ht="17.25" customHeight="1">
       <c r="A31" s="3">
         <v>300</v>
       </c>
@@ -1311,7 +1584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:5" ht="17.25" customHeight="1">
       <c r="A32" s="3">
         <v>310</v>
       </c>
@@ -1323,7 +1596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:5" ht="17.25" customHeight="1">
       <c r="A33" s="3">
         <v>320</v>
       </c>
@@ -1334,8 +1607,11 @@
       <c r="D33" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="E33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" customHeight="1">
       <c r="A34" s="3">
         <v>330</v>
       </c>
@@ -1346,8 +1622,11 @@
       <c r="D34" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="E34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" customHeight="1">
       <c r="A35" s="3">
         <v>340</v>
       </c>
@@ -1359,7 +1638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:5" ht="17.25" customHeight="1">
       <c r="A36" s="3">
         <v>350</v>
       </c>
@@ -1370,8 +1649,11 @@
       <c r="D36" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="E36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" customHeight="1">
       <c r="A37" s="3">
         <v>360</v>
       </c>
@@ -1382,8 +1664,11 @@
       <c r="D37" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="E37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" customHeight="1">
       <c r="A38" s="3">
         <v>370</v>
       </c>
@@ -1394,8 +1679,11 @@
       <c r="D38" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" customHeight="1">
       <c r="A39" s="3">
         <v>380</v>
       </c>
@@ -1406,8 +1694,11 @@
       <c r="D39" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="E39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" customHeight="1">
       <c r="A40" s="3">
         <v>400</v>
       </c>
@@ -1419,7 +1710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:5" ht="17.25" customHeight="1">
       <c r="A41" s="3">
         <v>410</v>
       </c>
@@ -1430,8 +1721,11 @@
       <c r="D41" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="E41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" customHeight="1">
       <c r="A42" s="3">
         <v>420</v>
       </c>
@@ -1442,8 +1736,11 @@
       <c r="D42" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="E42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" customHeight="1">
       <c r="A43" s="3">
         <v>430</v>
       </c>
@@ -1454,8 +1751,11 @@
       <c r="D43" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" customHeight="1">
       <c r="A44" s="3">
         <v>440</v>
       </c>
@@ -1466,8 +1766,11 @@
       <c r="D44" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" customHeight="1">
       <c r="A45" s="3">
         <v>450</v>
       </c>
@@ -1478,8 +1781,11 @@
       <c r="D45" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="E45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" customHeight="1">
       <c r="A46" s="3">
         <v>460</v>
       </c>
@@ -1491,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row r="47" spans="1:5" ht="17.25" customHeight="1">
       <c r="A47" s="3">
         <v>470</v>
       </c>
@@ -1502,8 +1808,11 @@
       <c r="D47" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" customHeight="1">
       <c r="A48" s="3">
         <v>480</v>
       </c>
@@ -1512,8 +1821,11 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" customHeight="1">
       <c r="A49" s="3">
         <v>490</v>
       </c>
@@ -1525,7 +1837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row r="50" spans="1:5" ht="17.25" customHeight="1">
       <c r="A50" s="3">
         <v>500</v>
       </c>
@@ -1537,7 +1849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row r="51" spans="1:5" ht="17.25" customHeight="1">
       <c r="A51" s="3">
         <v>510</v>
       </c>
@@ -1548,8 +1860,11 @@
       <c r="D51" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" customHeight="1">
       <c r="A52" s="3">
         <v>520</v>
       </c>
@@ -1560,8 +1875,11 @@
       <c r="D52" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="E52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" customHeight="1">
       <c r="A53" s="3">
         <v>530</v>
       </c>
@@ -1571,7 +1889,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row r="54" spans="1:5" ht="17.25" customHeight="1">
       <c r="A54" s="3">
         <v>540</v>
       </c>
@@ -1582,8 +1900,11 @@
       <c r="D54" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="E54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" customHeight="1">
       <c r="A55" s="3">
         <v>550</v>
       </c>
@@ -1594,8 +1915,11 @@
       <c r="D55" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="E55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" customHeight="1">
       <c r="A56" s="3">
         <v>560</v>
       </c>
@@ -1606,8 +1930,11 @@
       <c r="D56" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" customHeight="1">
       <c r="A57" s="3">
         <v>570</v>
       </c>
@@ -1618,8 +1945,11 @@
       <c r="D57" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="E57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" customHeight="1">
       <c r="A58" s="3">
         <v>580</v>
       </c>
@@ -1631,7 +1961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row r="59" spans="1:5" ht="17.25" customHeight="1">
       <c r="A59" s="3">
         <v>590</v>
       </c>
@@ -1642,8 +1972,11 @@
       <c r="D59" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" customHeight="1">
       <c r="A60" s="3">
         <v>600</v>
       </c>
@@ -1654,8 +1987,11 @@
       <c r="D60" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" customHeight="1">
       <c r="A61" s="3">
         <v>610</v>
       </c>
@@ -1666,8 +2002,11 @@
       <c r="D61" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" customHeight="1">
       <c r="A62" s="3">
         <v>620</v>
       </c>
@@ -1677,7 +2016,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row r="63" spans="1:5" ht="17.25" customHeight="1">
       <c r="A63" s="3">
         <v>630</v>
       </c>
@@ -1686,8 +2025,11 @@
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="E63" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" customHeight="1">
       <c r="A64" s="3">
         <v>640</v>
       </c>
@@ -1696,8 +2038,11 @@
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="E64" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" customHeight="1">
       <c r="A65" s="3">
         <v>650</v>
       </c>
@@ -1709,7 +2054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row r="66" spans="1:5" ht="17.25" customHeight="1">
       <c r="A66" s="3">
         <v>660</v>
       </c>
@@ -1721,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row r="67" spans="1:5" ht="17.25" customHeight="1">
       <c r="A67" s="3">
         <v>670</v>
       </c>
@@ -1731,7 +2076,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row r="68" spans="1:5" ht="17.25" customHeight="1">
       <c r="A68" s="3">
         <v>680</v>
       </c>
@@ -1741,7 +2086,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row r="69" spans="1:5" ht="17.25" customHeight="1">
       <c r="A69" s="3">
         <v>690</v>
       </c>
@@ -1752,8 +2097,11 @@
       <c r="D69" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="E69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" customHeight="1">
       <c r="A70" s="3">
         <v>700</v>
       </c>
@@ -1763,7 +2111,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row r="71" spans="1:5" ht="17.25" customHeight="1">
       <c r="A71" s="3">
         <v>710</v>
       </c>
@@ -1773,7 +2121,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row r="72" spans="1:5" ht="17.25" customHeight="1">
       <c r="A72" s="3">
         <v>720</v>
       </c>
@@ -1783,7 +2131,7 @@
       <c r="C72" s="3"/>
       <c r="D72" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row r="73" spans="1:5" ht="17.25" customHeight="1">
       <c r="A73" s="3">
         <v>730</v>
       </c>
@@ -1793,7 +2141,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row r="74" spans="1:5" ht="17.25" customHeight="1">
       <c r="A74" s="3">
         <v>740</v>
       </c>
@@ -1802,8 +2150,11 @@
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="E74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" customHeight="1">
       <c r="A75" s="3">
         <v>750</v>
       </c>
@@ -1812,8 +2163,11 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="E75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" customHeight="1">
       <c r="A76" s="3">
         <v>760</v>
       </c>
@@ -1822,8 +2176,11 @@
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="E76" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" customHeight="1">
       <c r="A77" s="3">
         <v>770</v>
       </c>
@@ -1834,8 +2191,11 @@
       <c r="D77" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="E77" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" customHeight="1">
       <c r="A78" s="3">
         <v>780</v>
       </c>
@@ -1845,7 +2205,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row r="79" spans="1:5" ht="17.25" customHeight="1">
       <c r="A79" s="3">
         <v>790</v>
       </c>
@@ -1855,7 +2215,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row r="80" spans="1:5" ht="17.25" customHeight="1">
       <c r="A80" s="3">
         <v>800</v>
       </c>
@@ -1865,7 +2225,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row r="81" spans="1:5" ht="17.25" customHeight="1">
       <c r="A81" s="3">
         <v>805</v>
       </c>
@@ -1875,7 +2235,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row r="82" spans="1:5" ht="17.25" customHeight="1">
       <c r="A82" s="3">
         <v>806</v>
       </c>
@@ -1885,7 +2245,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row r="83" spans="1:5" ht="17.25" customHeight="1">
       <c r="A83" s="3">
         <v>810</v>
       </c>
@@ -1894,8 +2254,11 @@
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="E83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" customHeight="1">
       <c r="A84" s="3">
         <v>820</v>
       </c>
@@ -1904,8 +2267,11 @@
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="E84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="17.25" customHeight="1">
       <c r="A85" s="3">
         <v>830</v>
       </c>
@@ -1915,7 +2281,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row r="86" spans="1:5" ht="17.25" customHeight="1">
       <c r="A86" s="3">
         <v>840</v>
       </c>
@@ -1925,7 +2291,7 @@
       <c r="C86" s="3"/>
       <c r="D86" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row r="87" spans="1:5" ht="17.25" customHeight="1">
       <c r="A87" s="3">
         <v>850</v>
       </c>
@@ -1935,7 +2301,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+    <row r="88" spans="1:5" ht="17.25" customHeight="1">
       <c r="A88" s="3">
         <v>860</v>
       </c>
@@ -1945,7 +2311,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    <row r="89" spans="1:5" ht="17.25" customHeight="1">
       <c r="A89" s="3">
         <v>865</v>
       </c>
@@ -1954,8 +2320,11 @@
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="E89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" customHeight="1">
       <c r="A90" s="3">
         <v>867</v>
       </c>
@@ -1965,7 +2334,7 @@
       <c r="C90" s="3"/>
       <c r="D90" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+    <row r="91" spans="1:5" ht="17.25" customHeight="1">
       <c r="A91" s="3">
         <v>870</v>
       </c>
@@ -1974,8 +2343,11 @@
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="E91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17.25" customHeight="1">
       <c r="A92" s="3">
         <v>880</v>
       </c>
@@ -1984,8 +2356,11 @@
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="E92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17.25" customHeight="1">
       <c r="A93" s="3">
         <v>890</v>
       </c>
@@ -1994,8 +2369,11 @@
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="E93" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" customHeight="1">
       <c r="A94" s="3">
         <v>900</v>
       </c>
@@ -2004,8 +2382,11 @@
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="E94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" customHeight="1">
       <c r="A95" s="3">
         <v>910</v>
       </c>
@@ -2015,7 +2396,7 @@
       <c r="C95" s="3"/>
       <c r="D95" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+    <row r="96" spans="1:5" ht="17.25" customHeight="1">
       <c r="A96" s="3">
         <v>920</v>
       </c>
@@ -2024,8 +2405,11 @@
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="E96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="17.25" customHeight="1">
       <c r="A97" s="3">
         <v>930</v>
       </c>
@@ -2035,7 +2419,7 @@
       <c r="C97" s="3"/>
       <c r="D97" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+    <row r="98" spans="1:5" ht="17.25" customHeight="1">
       <c r="A98" s="3">
         <v>940</v>
       </c>
@@ -2044,8 +2428,11 @@
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="E98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="17.25" customHeight="1">
       <c r="A99" s="3">
         <v>950</v>
       </c>
@@ -2055,7 +2442,7 @@
       <c r="C99" s="3"/>
       <c r="D99" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+    <row r="100" spans="1:5" ht="17.25" customHeight="1">
       <c r="A100" s="3">
         <v>960</v>
       </c>
@@ -2064,8 +2451,11 @@
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="E100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17.25" customHeight="1">
       <c r="A101" s="3">
         <v>970</v>
       </c>
@@ -2074,8 +2464,11 @@
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="E101" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="17.25" customHeight="1">
       <c r="A102" s="3">
         <v>980</v>
       </c>
@@ -2084,8 +2477,11 @@
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="E102" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17.25" customHeight="1">
       <c r="A103" s="3">
         <v>990</v>
       </c>
@@ -2094,8 +2490,11 @@
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="E103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17.25" customHeight="1">
       <c r="A104" s="3">
         <v>1000</v>
       </c>
@@ -2104,8 +2503,11 @@
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="E104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="17.25" customHeight="1">
       <c r="A105" s="3">
         <v>1010</v>
       </c>
@@ -2114,8 +2516,11 @@
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="E105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="17.25" customHeight="1">
       <c r="A106" s="3">
         <v>1020</v>
       </c>
@@ -2124,8 +2529,11 @@
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="E106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="17.25" customHeight="1">
       <c r="A107" s="3">
         <v>1030</v>
       </c>
@@ -2134,8 +2542,11 @@
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="E107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17.25" customHeight="1">
       <c r="A108" s="3">
         <v>1040</v>
       </c>
@@ -2145,7 +2556,7 @@
       <c r="C108" s="3"/>
       <c r="D108" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+    <row r="109" spans="1:5" ht="17.25" customHeight="1">
       <c r="A109" s="3">
         <v>1045</v>
       </c>
@@ -2154,8 +2565,11 @@
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="E109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17.25" customHeight="1">
       <c r="A110" s="3">
         <v>1050</v>
       </c>
@@ -2166,8 +2580,11 @@
       <c r="D110" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="E110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="17.25" customHeight="1">
       <c r="A111" s="3">
         <v>1060</v>
       </c>
@@ -2177,7 +2594,7 @@
       <c r="C111" s="3"/>
       <c r="D111" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+    <row r="112" spans="1:5" ht="17.25" customHeight="1">
       <c r="A112" s="3">
         <v>1070</v>
       </c>
@@ -2187,7 +2604,7 @@
       <c r="C112" s="3"/>
       <c r="D112" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+    <row r="113" spans="1:5" ht="17.25" customHeight="1">
       <c r="A113" s="3">
         <v>1080</v>
       </c>
@@ -2198,8 +2615,11 @@
       <c r="D113" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="E113" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="17.25" customHeight="1">
       <c r="A114" s="3">
         <v>1090</v>
       </c>
@@ -2209,7 +2629,7 @@
       <c r="C114" s="3"/>
       <c r="D114" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+    <row r="115" spans="1:5" ht="17.25" customHeight="1">
       <c r="A115" s="3">
         <v>1100</v>
       </c>
@@ -2218,8 +2638,11 @@
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="E115" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17.25" customHeight="1">
       <c r="A116" s="3">
         <v>1110</v>
       </c>
@@ -2228,8 +2651,11 @@
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="E116" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="17.25" customHeight="1">
       <c r="A117" s="3">
         <v>1120</v>
       </c>
@@ -2238,8 +2664,11 @@
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="E117" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="17.25" customHeight="1">
       <c r="A118" s="3">
         <v>1130</v>
       </c>
@@ -2248,8 +2677,11 @@
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="E118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="17.25" customHeight="1">
       <c r="A119" s="3">
         <v>1140</v>
       </c>
@@ -2259,7 +2691,7 @@
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+    <row r="120" spans="1:5" ht="17.25" customHeight="1">
       <c r="A120" s="3">
         <v>1150</v>
       </c>
@@ -2268,8 +2700,11 @@
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="E120" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="17.25" customHeight="1">
       <c r="A121" s="3">
         <v>1160</v>
       </c>
@@ -2279,7 +2714,7 @@
       <c r="C121" s="3"/>
       <c r="D121" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+    <row r="122" spans="1:5" ht="17.25" customHeight="1">
       <c r="A122" s="3">
         <v>1170</v>
       </c>
@@ -2289,7 +2724,7 @@
       <c r="C122" s="3"/>
       <c r="D122" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+    <row r="123" spans="1:5" ht="17.25" customHeight="1">
       <c r="A123" s="3">
         <v>1180</v>
       </c>
@@ -2299,7 +2734,7 @@
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+    <row r="124" spans="1:5" ht="17.25" customHeight="1">
       <c r="A124" s="3">
         <v>1190</v>
       </c>
@@ -2309,7 +2744,7 @@
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+    <row r="125" spans="1:5" ht="17.25" customHeight="1">
       <c r="A125" s="3">
         <v>1200</v>
       </c>
@@ -2318,8 +2753,11 @@
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="E125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="17.25" customHeight="1">
       <c r="A126" s="3">
         <v>1210</v>
       </c>
@@ -2328,8 +2766,11 @@
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="E126" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="17.25" customHeight="1">
       <c r="A127" s="3">
         <v>1220</v>
       </c>
@@ -2341,7 +2782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+    <row r="128" spans="1:5" ht="17.25" customHeight="1">
       <c r="A128" s="3">
         <v>1230</v>
       </c>
@@ -2353,7 +2794,7 @@
         <v>152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+    <row r="129" spans="1:5" ht="17.25" customHeight="1">
       <c r="A129" s="3">
         <v>1240</v>
       </c>
@@ -2362,8 +2803,11 @@
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="E129" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="17.25" customHeight="1">
       <c r="A130" s="3">
         <v>1250</v>
       </c>
@@ -2375,7 +2819,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+    <row r="131" spans="1:5" ht="17.25" customHeight="1">
       <c r="A131" s="3">
         <v>1260</v>
       </c>
@@ -2386,8 +2830,11 @@
       <c r="D131" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="E131" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="17.25" customHeight="1">
       <c r="A132" s="3">
         <v>1270</v>
       </c>
@@ -2396,8 +2843,11 @@
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="E132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="17.25" customHeight="1">
       <c r="A133" s="3">
         <v>1280</v>
       </c>
@@ -2407,7 +2857,7 @@
       <c r="C133" s="3"/>
       <c r="D133" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+    <row r="134" spans="1:5" ht="17.25" customHeight="1">
       <c r="A134" s="3">
         <v>1290</v>
       </c>
@@ -2416,8 +2866,11 @@
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="E134" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="17.25" customHeight="1">
       <c r="A135" s="3">
         <v>1300</v>
       </c>
@@ -2427,13 +2880,9 @@
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
-      <c r="A136" s="8"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-    </row>
+    <row r="136" spans="1:5" ht="17.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>